--- a/truth_excel/test_all_studies_final.xlsx
+++ b/truth_excel/test_all_studies_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brandonrodriguez/Leveraging-ChatGPT-for-Structured-Data-Extraction-in-Clinical-Trials/truth_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A657F0-79CB-FE40-AA95-9CC16F73C252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64E87D7-4A9F-C046-92A6-B4F3B9B2A070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8480" yWindow="620" windowWidth="16980" windowHeight="15020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11000" yWindow="560" windowWidth="16980" windowHeight="15020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="101">
   <si>
     <t>References</t>
   </si>
@@ -67,9 +67,6 @@
     <t>Montgomery et al., 2008</t>
   </si>
   <si>
-    <t>Meredith et al., 2012</t>
-  </si>
-  <si>
     <t>Stein et al., 2008</t>
   </si>
   <si>
@@ -188,9 +185,6 @@
   </si>
   <si>
     <t>DSM-IV</t>
-  </si>
-  <si>
-    <t>DSM-V</t>
   </si>
   <si>
     <t>Lenox-Smith et al., 2003</t>
@@ -356,16 +350,6 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Wyeth-Ayerst</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
       <t>Takeda</t>
     </r>
   </si>
@@ -411,6 +395,12 @@
   </si>
   <si>
     <t>Schwabe</t>
+  </si>
+  <si>
+    <t>DSM-5</t>
+  </si>
+  <si>
+    <t>Merideth et al., 2011</t>
   </si>
 </sst>
 </file>
@@ -877,10 +867,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
+      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -925,16 +915,16 @@
     </row>
     <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" s="10">
         <v>244</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E2" s="10">
         <v>61.5</v>
@@ -949,27 +939,27 @@
         <v>12.3</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J2" s="10">
         <v>24</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="10">
         <v>244</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E3" s="10">
         <v>56.6</v>
@@ -981,30 +971,30 @@
         <v>46</v>
       </c>
       <c r="H3" s="10">
-        <v>19.8</v>
+        <v>20.5</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J3" s="10">
         <v>24</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B4" s="9">
         <v>781</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="9">
         <v>69.900000000000006</v>
@@ -1019,27 +1009,27 @@
         <v>23.1</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J4" s="9">
         <v>8</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B5" s="9">
         <v>781</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="9">
         <v>64.099999999999994</v>
@@ -1054,27 +1044,27 @@
         <v>25</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J5" s="9">
         <v>8</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6" s="9">
         <v>781</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" s="9">
         <v>67.3</v>
@@ -1089,27 +1079,27 @@
         <v>28.8</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J6" s="9">
         <v>8</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B7" s="9">
         <v>781</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="9">
         <v>72.400000000000006</v>
@@ -1124,27 +1114,27 @@
         <v>32.1</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J7" s="9">
         <v>8</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B8" s="9">
         <v>781</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="9">
         <v>65</v>
@@ -1159,167 +1149,167 @@
         <v>22.9</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J8" s="9">
         <v>8</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B9" s="9">
         <v>951</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J9" s="9">
         <v>8</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" s="9">
         <v>951</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J10" s="9">
         <v>8</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B11" s="9">
         <v>951</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J11" s="9">
         <v>8</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B12" s="9">
         <v>951</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J12" s="9">
         <v>8</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13">
         <v>271</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13">
         <v>51.4</v>
@@ -1334,27 +1324,27 @@
         <v>24.3</v>
       </c>
       <c r="I13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J13">
         <v>4</v>
       </c>
       <c r="K13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B14">
         <v>271</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>50</v>
@@ -1369,27 +1359,27 @@
         <v>30.3</v>
       </c>
       <c r="I14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J14">
         <v>4</v>
       </c>
       <c r="K14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B15">
         <v>271</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15">
         <v>58.8</v>
@@ -1404,27 +1394,27 @@
         <v>47.1</v>
       </c>
       <c r="I15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J15">
         <v>4</v>
       </c>
       <c r="K15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B16">
         <v>271</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E16">
         <v>50.7</v>
@@ -1439,27 +1429,27 @@
         <v>28.4</v>
       </c>
       <c r="I16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J16">
         <v>4</v>
       </c>
       <c r="K16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B17">
         <v>412</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E17">
         <v>74.8</v>
@@ -1474,27 +1464,27 @@
         <v>16.5</v>
       </c>
       <c r="I17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J17">
         <v>12</v>
       </c>
       <c r="K17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B18">
         <v>412</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E18">
         <v>68.3</v>
@@ -1509,27 +1499,27 @@
         <v>26.7</v>
       </c>
       <c r="I18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J18">
         <v>12</v>
       </c>
       <c r="K18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B19">
         <v>412</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E19">
         <v>71.8</v>
@@ -1544,13 +1534,13 @@
         <v>17.600000000000001</v>
       </c>
       <c r="I19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J19">
         <v>12</v>
       </c>
       <c r="K19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1561,10 +1551,10 @@
         <v>487</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20" s="6">
         <v>64.2</v>
@@ -1579,13 +1569,13 @@
         <v>45.7</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J20" s="6">
         <v>10</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1596,10 +1586,10 @@
         <v>487</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21" s="6">
         <v>62.2</v>
@@ -1614,13 +1604,13 @@
         <v>37.799999999999997</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J21" s="6">
         <v>10</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1631,10 +1621,10 @@
         <v>487</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E22" s="6">
         <v>61.5</v>
@@ -1649,13 +1639,13 @@
         <v>38.5</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J22" s="6">
         <v>10</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1666,10 +1656,10 @@
         <v>412</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E23" s="3">
         <v>67.900000000000006</v>
@@ -1684,13 +1674,13 @@
         <v>13.7</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J23" s="5">
         <v>12</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1701,10 +1691,10 @@
         <v>412</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E24" s="3">
         <v>71.900000000000006</v>
@@ -1719,13 +1709,13 @@
         <v>9.4</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J24" s="5">
         <v>12</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1736,10 +1726,10 @@
         <v>412</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E25" s="3">
         <v>63.4</v>
@@ -1754,13 +1744,13 @@
         <v>21.1</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J25" s="5">
         <v>12</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1771,10 +1761,10 @@
         <v>291</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E26" s="8">
         <v>75.5</v>
@@ -1786,16 +1776,16 @@
         <v>71.400000000000006</v>
       </c>
       <c r="H26" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J26" s="6">
         <v>10</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1806,10 +1796,10 @@
         <v>291</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E27" s="8">
         <v>80</v>
@@ -1821,16 +1811,16 @@
         <v>71.7</v>
       </c>
       <c r="H27" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J27" s="6">
         <v>10</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1841,10 +1831,10 @@
         <v>273</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E28" s="3">
         <v>79</v>
@@ -1859,13 +1849,13 @@
         <v>24.9</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J28">
         <v>8</v>
       </c>
       <c r="K28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1876,10 +1866,10 @@
         <v>273</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E29" s="3">
         <v>75</v>
@@ -1894,27 +1884,27 @@
         <v>28</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J29">
         <v>8</v>
       </c>
       <c r="K29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="6" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="B30" s="6">
         <v>854</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E30" s="8">
         <v>68</v>
@@ -1929,27 +1919,27 @@
         <v>28.8</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J30" s="6">
         <v>10</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="6" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="B31" s="6">
         <v>854</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E31" s="8">
         <v>71</v>
@@ -1964,27 +1954,27 @@
         <v>39.1</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J31" s="6">
         <v>10</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="6" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="B32" s="6">
         <v>854</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E32" s="8">
         <v>66</v>
@@ -1999,27 +1989,27 @@
         <v>27.7</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J32" s="6">
         <v>10</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="B33" s="6">
         <v>854</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E33" s="8">
         <v>64</v>
@@ -2034,97 +2024,97 @@
         <v>21.4</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J33" s="6">
         <v>10</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B34" s="6">
         <v>121</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F34" s="8">
         <v>29</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H34" s="8">
         <v>8</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J34" s="6">
         <v>12</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B35" s="6">
         <v>121</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F35" s="8">
         <v>28.6</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H35" s="8">
         <v>6.9</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J35" s="6">
         <v>12</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B36" s="6">
         <v>378</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E36" s="8">
         <v>59</v>
@@ -2139,27 +2129,27 @@
         <v>20</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J36" s="6">
         <v>12</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B37" s="6">
         <v>378</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E37" s="8">
         <v>51</v>
@@ -2174,27 +2164,27 @@
         <v>27</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J37" s="6">
         <v>12</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="6" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B38" s="6">
         <v>315</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E38" s="8">
         <v>52.5</v>
@@ -2209,27 +2199,27 @@
         <v>25</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J38" s="6">
         <v>8</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B39" s="6">
         <v>315</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E39" s="8">
         <v>52.9</v>
@@ -2244,167 +2234,167 @@
         <v>22</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J39" s="6">
         <v>8</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B40" s="6">
         <v>581</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H40" s="8">
         <v>25</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J40" s="6">
         <v>10</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="6" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B41" s="6">
         <v>581</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H41" s="8">
         <v>31</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J41" s="6">
         <v>10</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="6" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B42" s="6">
         <v>581</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H42" s="8">
         <v>27.8</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J42" s="6">
         <v>10</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B43" s="6">
         <v>581</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H43" s="8">
         <v>40</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J43" s="6">
         <v>10</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="6" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B44" s="6">
         <v>566</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E44" s="8">
         <v>54</v>
@@ -2419,27 +2409,27 @@
         <v>23.9</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J44" s="6">
         <v>8</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:11" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B45" s="6">
         <v>566</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E45" s="8">
         <v>56</v>
@@ -2454,27 +2444,27 @@
         <v>27.4</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J45" s="6">
         <v>8</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B46" s="6">
         <v>566</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E46" s="8">
         <v>56</v>
@@ -2489,27 +2479,27 @@
         <v>22.2</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J46" s="6">
         <v>8</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B47">
         <v>873</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E47" s="3">
         <v>68</v>
@@ -2524,27 +2514,27 @@
         <v>25.8</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J47">
         <v>8</v>
       </c>
       <c r="K47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B48">
         <v>873</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E48" s="3">
         <v>66.7</v>
@@ -2559,27 +2549,27 @@
         <v>25.2</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J48">
         <v>8</v>
       </c>
       <c r="K48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B49">
         <v>873</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E49" s="3">
         <v>64.5</v>
@@ -2594,27 +2584,27 @@
         <v>20.3</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J49">
         <v>8</v>
       </c>
       <c r="K49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B50">
         <v>873</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E50" s="3">
         <v>62.2</v>
@@ -2629,27 +2619,27 @@
         <v>18.899999999999999</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J50">
         <v>8</v>
       </c>
       <c r="K50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:11" s="6" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B51" s="6">
         <v>404</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E51" s="8">
         <v>64.599999999999994</v>
@@ -2664,27 +2654,27 @@
         <v>19.7</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J51" s="6">
         <v>8</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:11" s="6" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B52" s="6">
         <v>404</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E52" s="8">
         <v>59.7</v>
@@ -2699,27 +2689,27 @@
         <v>25.6</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J52" s="6">
         <v>8</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:11" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B53" s="6">
         <v>404</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E53" s="8">
         <v>62.5</v>
@@ -2734,27 +2724,27 @@
         <v>23.5</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J53" s="6">
         <v>8</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:11" s="6" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B54" s="6">
         <v>46</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E54" s="8">
         <v>66.7</v>
@@ -2769,27 +2759,27 @@
         <v>21</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J54" s="6">
         <v>8</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:11" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B55" s="6">
         <v>46</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E55" s="8">
         <v>68.2</v>
@@ -2804,27 +2794,27 @@
         <v>50</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J55" s="6">
         <v>8</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:11" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B56" s="6">
         <v>544</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E56" s="8">
         <v>42</v>
@@ -2835,31 +2825,31 @@
       <c r="G56" s="8">
         <v>45</v>
       </c>
-      <c r="H56" s="8">
-        <v>9.4</v>
+      <c r="H56" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="J56" s="6">
         <v>24</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B57" s="6">
         <v>544</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E57" s="8">
         <v>39</v>
@@ -2870,31 +2860,31 @@
       <c r="G57" s="8">
         <v>44</v>
       </c>
-      <c r="H57" s="8">
-        <v>11.5</v>
+      <c r="H57" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="J57" s="6">
         <v>24</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B58" s="6">
         <v>544</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E58" s="8">
         <v>35</v>
@@ -2905,31 +2895,31 @@
       <c r="G58" s="8">
         <v>45</v>
       </c>
-      <c r="H58" s="8">
-        <v>9.9</v>
+      <c r="H58" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="J58" s="6">
         <v>24</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:11" s="6" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B59" s="6">
         <v>544</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E59" s="8">
         <v>42</v>
@@ -2940,101 +2930,101 @@
       <c r="G59" s="8">
         <v>46</v>
       </c>
-      <c r="H59" s="8">
-        <v>14.6</v>
+      <c r="H59" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="J59" s="6">
         <v>24</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:11" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B60" s="6">
         <v>291</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J60" s="6">
         <v>10</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:11" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B61" s="6">
         <v>291</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J61" s="6">
         <v>10</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B62">
         <v>301</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E62" s="3">
         <v>68.7</v>
@@ -3049,27 +3039,27 @@
         <v>14.7</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J62">
         <v>8</v>
       </c>
       <c r="K62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B63">
         <v>301</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E63" s="3">
         <v>61.6</v>
@@ -3084,27 +3074,27 @@
         <v>16.600000000000001</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J63">
         <v>8</v>
       </c>
       <c r="K63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B64">
         <v>450</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E64" s="3">
         <v>72.099999999999994</v>
@@ -3119,27 +3109,27 @@
         <v>20.2</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J64">
         <v>9</v>
       </c>
       <c r="K64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B65">
         <v>450</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D65" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E65" s="3">
         <v>69</v>
@@ -3154,27 +3144,27 @@
         <v>26</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J65">
         <v>9</v>
       </c>
       <c r="K65" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B66">
         <v>513</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D66" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E66" s="3">
         <v>64.3</v>
@@ -3186,30 +3176,30 @@
         <v>43.1</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J66">
         <v>9</v>
       </c>
       <c r="K66" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B67">
         <v>513</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E67" s="3">
         <v>72.3</v>
@@ -3221,30 +3211,30 @@
         <v>44.1</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J67">
         <v>9</v>
       </c>
       <c r="K67" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B68">
         <v>513</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E68" s="3">
         <v>66.900000000000006</v>
@@ -3256,30 +3246,30 @@
         <v>44.1</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J68">
         <v>9</v>
       </c>
       <c r="K68" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:11" s="6" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B69" s="6">
-        <v>273</v>
+        <v>539</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E69" s="8">
         <v>70.400000000000006</v>
@@ -3294,27 +3284,27 @@
         <v>11.9</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J69" s="6">
         <v>10</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" spans="1:11" s="6" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B70" s="6">
-        <v>273</v>
+        <v>539</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E70" s="8">
         <v>73.599999999999994</v>
@@ -3329,27 +3319,27 @@
         <v>18</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J70" s="6">
         <v>10</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:11" s="6" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B71" s="6">
-        <v>273</v>
+        <v>539</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E71" s="8">
         <v>77.3</v>
@@ -3364,27 +3354,27 @@
         <v>21.2</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J71" s="6">
         <v>10</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:11" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B72" s="6">
-        <v>273</v>
+        <v>539</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E72" s="8">
         <v>73.7</v>
@@ -3399,27 +3389,27 @@
         <v>13.2</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J72" s="6">
         <v>10</v>
       </c>
       <c r="K72" s="6" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:11" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B73" s="6">
         <v>304</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E73" s="8">
         <v>67.8</v>
@@ -3434,27 +3424,27 @@
         <v>17.8</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J73" s="6">
         <v>8</v>
       </c>
       <c r="K73" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="74" spans="1:11" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B74" s="6">
         <v>304</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E74" s="8">
         <v>63.8</v>
@@ -3469,27 +3459,27 @@
         <v>25</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J74" s="6">
         <v>8</v>
       </c>
       <c r="K74" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:11" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B75" s="6">
         <v>210</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E75" s="8">
         <v>46.3</v>
@@ -3504,27 +3494,27 @@
         <v>24.1</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J75" s="6">
         <v>15</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="76" spans="1:11" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B76" s="6">
         <v>210</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E76" s="8">
         <v>54.9</v>
@@ -3539,27 +3529,27 @@
         <v>27.5</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J76" s="6">
         <v>15</v>
       </c>
       <c r="K76" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B77">
         <v>260</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D77" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E77" s="3">
         <v>100</v>
@@ -3574,27 +3564,27 @@
         <v>26.2</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J77">
         <v>8</v>
       </c>
       <c r="K77" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B78">
         <v>260</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D78" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E78" s="3">
         <v>100</v>
@@ -3609,27 +3599,27 @@
         <v>20.8</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J78">
         <v>8</v>
       </c>
       <c r="K78" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B79">
         <v>260</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E79" s="3">
         <v>100</v>
@@ -3644,27 +3634,27 @@
         <v>23.1</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J79">
         <v>8</v>
       </c>
       <c r="K79" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="80" spans="1:11" s="6" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B80" s="6">
         <v>327</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E80" s="8">
         <v>61.3</v>
@@ -3679,27 +3669,27 @@
         <v>44.6</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J80" s="6">
         <v>10</v>
       </c>
       <c r="K80" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="81" spans="1:11" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B81" s="6">
         <v>327</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E81" s="8">
         <v>62.3</v>
@@ -3714,27 +3704,27 @@
         <v>31.4</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J81" s="6">
         <v>10</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="82" spans="1:11" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B82" s="6">
         <v>324</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E82" s="8">
         <v>60.9</v>
@@ -3749,27 +3739,27 @@
         <v>21.1</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J82" s="6">
         <v>8</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="83" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B83" s="6">
         <v>324</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E83" s="8">
         <v>66.3</v>
@@ -3784,13 +3774,13 @@
         <v>18.399999999999999</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J83" s="6">
         <v>8</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
